--- a/biology/Botanique/Fimbristylis/Fimbristylis.xlsx
+++ b/biology/Botanique/Fimbristylis/Fimbristylis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fimbristylis est un genre de plantes de la famille des Cyperaceae. 
 On retrouve ses espèces partout dans le monde. Certaines espèces originaires d'un continent en ont colonisé d'autres. On les trouve généralement dans les régions tropicales et subtropicales humides.
@@ -515,7 +527,9 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On reconnaît actuellement plus de 300 espèces dans ce genre.
 Parmi celles-ci, citons :
